--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -70,21 +70,24 @@
     <t>small</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -94,34 +97,34 @@
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>better</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>buy</t>
   </si>
   <si>
     <t>little</t>
@@ -142,12 +145,12 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -166,13 +169,16 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
+  </si>
+  <si>
+    <t>learn</t>
   </si>
   <si>
     <t>happy</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -670,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6881720430107527</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.7849462365591398</v>
+        <v>0.796875</v>
       </c>
       <c r="L5">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="M5">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.676056338028169</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.78125</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.671875</v>
+        <v>0.6875</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6554054054054054</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.5738880918220947</v>
+        <v>0.5710186513629842</v>
       </c>
       <c r="L8">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M8">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6359223300970874</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="C9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.5362318840579711</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6050420168067226</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.504149377593361</v>
+        <v>0.5062240663900415</v>
       </c>
       <c r="L10">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M10">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5636363636363636</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.4721311475409836</v>
+        <v>0.4581967213114754</v>
       </c>
       <c r="L11">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="M11">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>644</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5159420289855072</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C12">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.345565749235474</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4216867469879518</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.3433734939759036</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L13">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>0.3886255924170616</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>129</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>0.3433734939759036</v>
+      </c>
+      <c r="L14">
         <v>57</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L14">
-        <v>63</v>
-      </c>
       <c r="M14">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3791469194312796</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.3166666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.359375</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.2377622377622378</v>
+        <v>0.234375</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3543307086614173</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.1827956989247312</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2722772277227723</v>
+        <v>0.3125</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.176706827309237</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>205</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2422680412371134</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,31 +1444,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.1412280701754386</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="L19">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>979</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1992753623188406</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,31 +1494,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.07337662337662337</v>
+        <v>0.1454864154250657</v>
       </c>
       <c r="L20">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="M20">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1427</v>
+        <v>975</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.180379746835443</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1538,31 +1544,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.04539385847797063</v>
+        <v>0.07082521117608837</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="N21">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>715</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,25 +1576,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1664190193164933</v>
+        <v>0.17</v>
       </c>
       <c r="C22">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>561</v>
+        <v>166</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <v>0.044</v>
+      </c>
+      <c r="L22">
+        <v>33</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1596,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.155</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1614,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>169</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1622,25 +1652,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1424050632911392</v>
+        <v>0.150521609538003</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>271</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1648,25 +1678,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1401869158878505</v>
+        <v>0.1498559077809798</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>184</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1674,13 +1704,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1343612334801762</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1692,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>393</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1700,25 +1730,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1268011527377522</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>303</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1726,13 +1756,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.125</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1744,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1752,13 +1782,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1123595505617977</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1770,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1778,25 +1808,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08516483516483517</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>333</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1804,25 +1834,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.08258928571428571</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>411</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1830,25 +1860,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.07107438016528926</v>
+        <v>0.07572383073496659</v>
       </c>
       <c r="C32">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E32">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>562</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1856,25 +1886,51 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04447268106734435</v>
+        <v>0.06765676567656766</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="F33">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>752</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.04336734693877551</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>0.23</v>
+      </c>
+      <c r="F34">
+        <v>0.77</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
